--- a/output/fit_clients/fit_round_148.xlsx
+++ b/output/fit_clients/fit_round_148.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2288393456.248479</v>
+        <v>1767774272.042096</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1089633462391602</v>
+        <v>0.1044556304739166</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04532700786789613</v>
+        <v>0.03210850014065088</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1144196762.482488</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2144934459.205832</v>
+        <v>1619781234.22142</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1810969641542773</v>
+        <v>0.1596281933885658</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03301155561506601</v>
+        <v>0.0321818680925933</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1072467292.067175</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4655258048.567801</v>
+        <v>4260360667.419915</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1453794419434486</v>
+        <v>0.1506876915605643</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03483555874121163</v>
+        <v>0.02878511505340742</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>54</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2327629084.840694</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3874094161.08695</v>
+        <v>4208719409.802667</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09319395649804051</v>
+        <v>0.08035226452588286</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03144261495958663</v>
+        <v>0.03931674115260541</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>58</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1937047092.563047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2469307440.923006</v>
+        <v>2787668069.804641</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1198507045985415</v>
+        <v>0.1271548891181782</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03703326828248174</v>
+        <v>0.04315831680853664</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>24</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1234653699.228757</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2776938921.34268</v>
+        <v>2649860085.111197</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09415743659578581</v>
+        <v>0.06386603594399512</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04368049964940929</v>
+        <v>0.03887879767272173</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>43</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1388469446.96844</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3819160320.117234</v>
+        <v>3492530537.083203</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2028536912254612</v>
+        <v>0.2090355612290603</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03146664570000646</v>
+        <v>0.02212801800249727</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>47</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1909580301.27671</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2286122027.330984</v>
+        <v>1689760591.500608</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1802245846756532</v>
+        <v>0.1736716223150389</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02756126011767685</v>
+        <v>0.03431590447530963</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1143061000.543762</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5628882713.963121</v>
+        <v>3616343229.137082</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1699762942322472</v>
+        <v>0.1730920600394865</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04121670513417466</v>
+        <v>0.05038773881970794</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>63</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2814441504.950207</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2918414681.922423</v>
+        <v>3338322356.296673</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1155202923490407</v>
+        <v>0.1463048954712812</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0458456562997299</v>
+        <v>0.04140372377386999</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>61</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1459207278.140759</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3039560440.63736</v>
+        <v>3018112368.19392</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1466521579789425</v>
+        <v>0.1724635986556035</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04791684215781074</v>
+        <v>0.04263184493169679</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>51</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1519780241.920002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5227801486.763171</v>
+        <v>4016994188.681541</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0729588657274382</v>
+        <v>0.07626097898141132</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02350230339025151</v>
+        <v>0.02264964527879267</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>50</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2613900735.905901</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3637264242.411064</v>
+        <v>3745940687.267262</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1518424374150834</v>
+        <v>0.1759387637178896</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0337098634817896</v>
+        <v>0.03854204007018786</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>47</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1818632109.466242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1684161129.296369</v>
+        <v>1466660005.096736</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1022642213089483</v>
+        <v>0.1025043870826118</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04131055156071532</v>
+        <v>0.03095709455172647</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>842080691.863161</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2763395423.659905</v>
+        <v>2260019333.180611</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07014775691195553</v>
+        <v>0.08661517266834116</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04376557988625108</v>
+        <v>0.04041985410464295</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>22</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1381697719.06722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3683220666.636059</v>
+        <v>3949318941.525635</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1144810838428006</v>
+        <v>0.1458945818596752</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03702768311573604</v>
+        <v>0.03441357563518576</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>43</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1841610383.558788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3833545545.863926</v>
+        <v>3909506420.703782</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1446463360137169</v>
+        <v>0.1413700954363618</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03018516457460345</v>
+        <v>0.03404076859108409</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>49</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1916772742.765284</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1083369858.748263</v>
+        <v>1377752131.597492</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1846281276443334</v>
+        <v>0.1433678141387097</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02320131665699762</v>
+        <v>0.01981869143183197</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>541684978.8736914</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2108690615.58374</v>
+        <v>2019134886.454538</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1579846461926444</v>
+        <v>0.1612407434690975</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03186025760449458</v>
+        <v>0.0209148571998753</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>23</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1054345322.528847</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2273161253.474703</v>
+        <v>2032054945.166815</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08909269278924477</v>
+        <v>0.06960764912807663</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03162429099497668</v>
+        <v>0.03603276870532248</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1136580636.495421</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3624618798.884265</v>
+        <v>4029548038.303027</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1189528787666781</v>
+        <v>0.1265405499085445</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04992298002732237</v>
+        <v>0.05600231066830957</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>42</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1812309423.529054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1299029975.246672</v>
+        <v>1274478508.155887</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1519703329908437</v>
+        <v>0.1210185097971438</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04991267034648258</v>
+        <v>0.0548360427299519</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>649515007.381834</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4085703411.905545</v>
+        <v>3095597465.959219</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1012870055232457</v>
+        <v>0.1063949514949488</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02375945739103028</v>
+        <v>0.03687885398663518</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>43</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2042851668.112808</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>911985245.4347948</v>
+        <v>1399113358.349635</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1025968269820348</v>
+        <v>0.07638164075712404</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02019995000784663</v>
+        <v>0.01891843119329846</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>455992706.9082665</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1115818997.960165</v>
+        <v>1051509960.799823</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1003711401237651</v>
+        <v>0.113164769188913</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03482539450616294</v>
+        <v>0.0374381074618236</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>557909499.3561157</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3780778336.058425</v>
+        <v>4395207382.533435</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1467137690487253</v>
+        <v>0.1031204683499904</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01648116305697287</v>
+        <v>0.01698468168966103</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>33</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1890389189.061841</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2609575821.833025</v>
+        <v>3188694419.518561</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1008745380084066</v>
+        <v>0.1036526327578315</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03094942000253423</v>
+        <v>0.0440239038515671</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>48</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1304787888.214381</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3775462420.468513</v>
+        <v>5705014348.767953</v>
       </c>
       <c r="F29" t="n">
-        <v>0.106547987981935</v>
+        <v>0.1050807619686735</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03178792725130293</v>
+        <v>0.04071894198436915</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>67</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1887731242.587295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2381418368.150966</v>
+        <v>1841612694.473594</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1226886444023935</v>
+        <v>0.09174316098130611</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03115078506590754</v>
+        <v>0.0260159132642894</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1190709264.917584</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1409026584.458567</v>
+        <v>1394241328.391351</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1105429173295928</v>
+        <v>0.09911960661163995</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03321598504676937</v>
+        <v>0.03592795462792427</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>704513194.4673833</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1798352974.799608</v>
+        <v>1646937480.186091</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08427101856294263</v>
+        <v>0.1135591944791212</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02479291412156992</v>
+        <v>0.02801071938047751</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>899176617.5076137</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2409271607.68445</v>
+        <v>1991206640.502968</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1429024498355004</v>
+        <v>0.1484967164602866</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05074740593612813</v>
+        <v>0.03737206808449602</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>45</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1204635849.754006</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1572761801.932363</v>
+        <v>1204977942.317719</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1152654114935028</v>
+        <v>0.1122254165335105</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02033970762467655</v>
+        <v>0.02396697439009806</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>786380844.891143</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>969043461.7126598</v>
+        <v>1146708770.396966</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07230162199250657</v>
+        <v>0.0828798721966134</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03617919705306016</v>
+        <v>0.03574170100101066</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>484521756.1854972</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2433752600.051506</v>
+        <v>2208028753.070135</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1448677012120018</v>
+        <v>0.1497498770740768</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02468012376201652</v>
+        <v>0.02061317423618998</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>37</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1216876327.255655</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2490667361.933022</v>
+        <v>2433427677.422068</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1062386276552258</v>
+        <v>0.07900368095476347</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0379483728489392</v>
+        <v>0.03077417216499143</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>40</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1245333775.700675</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1423396479.070816</v>
+        <v>1771265563.403059</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1010540395644889</v>
+        <v>0.114592761303593</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02996870950826124</v>
+        <v>0.028421018785628</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>711698299.5735515</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1591294151.936116</v>
+        <v>2201968757.981654</v>
       </c>
       <c r="F39" t="n">
-        <v>0.142845242189356</v>
+        <v>0.1493188518550057</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02529659017022279</v>
+        <v>0.02753343904215547</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>795647132.5057957</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1625173180.097737</v>
+        <v>1512387132.057666</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1266323936602803</v>
+        <v>0.1407846858058872</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05985461350926226</v>
+        <v>0.05718372824428057</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>812586524.8771935</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2900098076.176815</v>
+        <v>2031883854.14278</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1014229615610933</v>
+        <v>0.1267683799291682</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03592695044543363</v>
+        <v>0.03697012277646113</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>36</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1450049024.202696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4059909049.274599</v>
+        <v>3225460950.436089</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1107502146413651</v>
+        <v>0.08151567867527885</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02819086581455101</v>
+        <v>0.03867005650356151</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>51</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2029954557.997286</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3055392778.92908</v>
+        <v>2175121836.613366</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1683174682968296</v>
+        <v>0.1498891806138924</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01867186410965159</v>
+        <v>0.01686305254878434</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>49</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1527696382.221371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1912724143.978473</v>
+        <v>2247114870.229235</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06279730907876151</v>
+        <v>0.07193789401560355</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02636072517700731</v>
+        <v>0.03578526528511031</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>956362160.8795245</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2240609465.588319</v>
+        <v>1971936135.215232</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1572735525369381</v>
+        <v>0.1448914529243492</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04302993264881298</v>
+        <v>0.03523730075923281</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1120304747.853423</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4826841433.18119</v>
+        <v>4945907673.019287</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1284485621626803</v>
+        <v>0.1222703910088228</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06049458476357737</v>
+        <v>0.04809532794836227</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>53</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2413420733.416095</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4089903697.08811</v>
+        <v>4997971552.480199</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1426070938535574</v>
+        <v>0.1645002458722775</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03990227897692624</v>
+        <v>0.05929206380612487</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>40</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2044951852.763639</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4708569559.81776</v>
+        <v>2898410954.011428</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09156261501012911</v>
+        <v>0.09331318410554758</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0349323053824591</v>
+        <v>0.02997500718558851</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>49</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2354284773.041798</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1912487473.986387</v>
+        <v>1648337160.628812</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1891075236430594</v>
+        <v>0.1528092931982859</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03537950461983214</v>
+        <v>0.02855071515732989</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>956243704.8575701</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2844785809.895578</v>
+        <v>2814263225.943936</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1745329668978539</v>
+        <v>0.1557868728413374</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04020277535490355</v>
+        <v>0.04686668597979689</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>50</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1422392975.782525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1115489781.051428</v>
+        <v>1023069577.279629</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1577155489168141</v>
+        <v>0.1354673007233093</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04343009764434681</v>
+        <v>0.04569488898119104</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>557744955.7456641</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4999199108.77815</v>
+        <v>4429656480.759287</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1154727837594816</v>
+        <v>0.1111219304072437</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05207403015434513</v>
+        <v>0.06167021499400031</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>61</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2499599552.017478</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2383629697.707244</v>
+        <v>2583707033.036755</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1641701809480304</v>
+        <v>0.1383428363689175</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02850158214819504</v>
+        <v>0.02602127922002573</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>42</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1191814923.768514</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4709863461.230204</v>
+        <v>3140325212.271286</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1178351350941813</v>
+        <v>0.140987256817841</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04401883856789065</v>
+        <v>0.04306991134764609</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>49</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2354931850.387412</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>2999093695.662431</v>
+        <v>4672232860.296284</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1440774765049927</v>
+        <v>0.1669755166893345</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03119852909464314</v>
+        <v>0.02205278677401282</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>39</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1499546778.522743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1883751258.987141</v>
+        <v>1649652401.441375</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1289340879416717</v>
+        <v>0.1386264241770194</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03990351736270478</v>
+        <v>0.03795719459883908</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>941875614.8676389</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3589375007.969113</v>
+        <v>4527859776.619814</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1468925229987622</v>
+        <v>0.1625763455888049</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02339862954561414</v>
+        <v>0.02352746431820527</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>47</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1794687557.841213</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1340416343.530498</v>
+        <v>1315300516.871531</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1799531217978838</v>
+        <v>0.1964846524975968</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03491009269819956</v>
+        <v>0.03180261464948638</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>670208217.4155705</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4013207118.535102</v>
+        <v>4464906602.205644</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08781469417887122</v>
+        <v>0.1222307335066368</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04194584821759333</v>
+        <v>0.0454475949266661</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>40</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2006603534.514356</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3109205311.873722</v>
+        <v>2545692773.877899</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1631965755425324</v>
+        <v>0.1619452908891576</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02499412445283338</v>
+        <v>0.03169493328430154</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>47</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1554602737.691704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2204878547.385259</v>
+        <v>2909734764.486173</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1502053309020166</v>
+        <v>0.1492415381307397</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03225706190252105</v>
+        <v>0.02209706634878747</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>54</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1102439329.100953</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2034564249.558192</v>
+        <v>1464914934.530686</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1235231822988571</v>
+        <v>0.1754440937968495</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03390783976360646</v>
+        <v>0.04049188545015495</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1017282187.959879</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3788199415.863137</v>
+        <v>5422686172.618534</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08286915379239566</v>
+        <v>0.07313011534492508</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0408261257133791</v>
+        <v>0.04397560902872482</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>43</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1894099779.731392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4335455315.482993</v>
+        <v>4091328246.868108</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1496301528149227</v>
+        <v>0.189910859642719</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03383156705474683</v>
+        <v>0.03279837364306311</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>46</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2167727717.162439</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4280018266.10319</v>
+        <v>4637553586.468049</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1527401429912953</v>
+        <v>0.1703063522941069</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02378237533341065</v>
+        <v>0.02571594327073605</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>53</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2140009134.88738</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5683889924.508352</v>
+        <v>5149328408.862213</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1598976265721672</v>
+        <v>0.1159437001849627</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04781151230346359</v>
+        <v>0.03530417111541672</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>43</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2841945025.992249</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2620219579.636454</v>
+        <v>2132275614.826319</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07575264200056048</v>
+        <v>0.08728756836808847</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04651662166185482</v>
+        <v>0.04129325702345017</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>48</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1310109840.160712</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5525147833.427915</v>
+        <v>4701255192.540141</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1167103488850653</v>
+        <v>0.1436074477490991</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04152003243340364</v>
+        <v>0.03609401323344367</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>47</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2762574004.882405</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1496808582.657921</v>
+        <v>2187077759.716321</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1413601529997543</v>
+        <v>0.1300532220593138</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03630016442051894</v>
+        <v>0.04981331231068805</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>748404231.18551</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3518307577.401417</v>
+        <v>2417641567.74532</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0959808451576328</v>
+        <v>0.068109864905548</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04876144586840293</v>
+        <v>0.03740604823514126</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>42</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1759153799.33842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4943562508.258802</v>
+        <v>5241108073.432168</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1486834664768649</v>
+        <v>0.1785104937836883</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03277004627316914</v>
+        <v>0.02112181557906627</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>54</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2471781355.6034</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1819744240.226282</v>
+        <v>2217059518.557661</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06678310249892684</v>
+        <v>0.08918627909468206</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04952273797514919</v>
+        <v>0.03811208750116556</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>909872095.5108445</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3388317573.157795</v>
+        <v>2709781756.222778</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1007012082862215</v>
+        <v>0.1069179218233372</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04106449340801895</v>
+        <v>0.0333504372896337</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>57</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1694158746.9732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3777989736.159536</v>
+        <v>3238841006.151283</v>
       </c>
       <c r="F74" t="n">
-        <v>0.120102833686787</v>
+        <v>0.1167473089686005</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02629862784754346</v>
+        <v>0.02923747592765202</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>51</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1888994866.182119</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2090565950.578244</v>
+        <v>2024464957.916275</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1384154057099226</v>
+        <v>0.1141771182504424</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03416614036869214</v>
+        <v>0.02526417882715423</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1045282930.91491</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4802750238.559885</v>
+        <v>5302643937.291136</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09954895820325932</v>
+        <v>0.111099607514442</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02551036203802196</v>
+        <v>0.02837585436096091</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>33</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2401375137.642927</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2186952718.976219</v>
+        <v>1520879190.345199</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1626700327700488</v>
+        <v>0.1711580529997749</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02626642551266861</v>
+        <v>0.02211158924402945</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1093476448.551281</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3569205555.580172</v>
+        <v>3785073209.881013</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1225574206609883</v>
+        <v>0.1029536674180881</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04764745068940536</v>
+        <v>0.0502882072885493</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>52</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1784602774.328947</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1820798615.842576</v>
+        <v>1258482916.857684</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1112297416919787</v>
+        <v>0.1127074522218297</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02451675438676297</v>
+        <v>0.03709792108702991</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>910399398.2007315</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4645487519.741319</v>
+        <v>5236009372.157477</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09120438259873868</v>
+        <v>0.07450577865240064</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03667754591339119</v>
+        <v>0.03415777453382867</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>31</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2322743791.413103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3626072761.776369</v>
+        <v>5157704081.288142</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1327329549306014</v>
+        <v>0.1253113006083459</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02170211811660284</v>
+        <v>0.03161995555354082</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>35</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1813036330.177226</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3478169201.572588</v>
+        <v>5673398442.054579</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2045124220042506</v>
+        <v>0.1709592194646675</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0217854754322575</v>
+        <v>0.0200686364065113</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>55</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1739084669.6416</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2269830567.140766</v>
+        <v>2362117931.528499</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1514300341943649</v>
+        <v>0.1063935884733432</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03742473995485777</v>
+        <v>0.04096198420228878</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1134915302.467937</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1815576248.810951</v>
+        <v>1867798258.844649</v>
       </c>
       <c r="F84" t="n">
-        <v>0.105560092615069</v>
+        <v>0.08459426119648294</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03242417380436469</v>
+        <v>0.03687066579576952</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>907788156.3749721</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3057980779.229385</v>
+        <v>2603587688.150175</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1124157537037386</v>
+        <v>0.1807869392754067</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04228133269473978</v>
+        <v>0.04309207943399141</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>55</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1528990456.121001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1688245438.327146</v>
+        <v>2082549431.702286</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1606160923929117</v>
+        <v>0.1392373359524926</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02515707290857545</v>
+        <v>0.02299616187229071</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>16</v>
-      </c>
-      <c r="J86" t="n">
-        <v>844122703.409578</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1277135991.64258</v>
+        <v>1088749712.266958</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1664614046177844</v>
+        <v>0.1699754234445085</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02872412833875685</v>
+        <v>0.03676973704643313</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>638568071.1360117</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3069325163.343567</v>
+        <v>3305277710.961092</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1657065385582945</v>
+        <v>0.1681456384008913</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03922799583260159</v>
+        <v>0.02985637618968942</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>58</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1534662618.93411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2288077939.477869</v>
+        <v>3197680785.506955</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1384575872448774</v>
+        <v>0.1264149182751031</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04042555431166096</v>
+        <v>0.02718998282774454</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>52</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1144039059.990101</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1865887789.24967</v>
+        <v>1475112584.037182</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1267512284286842</v>
+        <v>0.08969429375188448</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0390614624495917</v>
+        <v>0.05163349811433834</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>932943940.2700236</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1295659763.577931</v>
+        <v>1658729878.033865</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1841364478197116</v>
+        <v>0.1725213043710069</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05928557872561109</v>
+        <v>0.03736639991676951</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>647829947.9121199</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2682720434.156324</v>
+        <v>1895126258.421476</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1001977838836002</v>
+        <v>0.07278208602436911</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03097251932581139</v>
+        <v>0.04555074670829513</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>33</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1341360214.779421</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4730411106.267648</v>
+        <v>3507959576.753747</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1138186387476906</v>
+        <v>0.1199885613108108</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04964845946755186</v>
+        <v>0.03468928680610184</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>45</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2365205506.482386</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2241326377.656459</v>
+        <v>1915816474.104776</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1410940293565643</v>
+        <v>0.165583770022818</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03255185519445732</v>
+        <v>0.0383228964582896</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1120663218.524488</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2688943401.109836</v>
+        <v>2583591823.907017</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0980076575517292</v>
+        <v>0.1298628288318258</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03819924671872695</v>
+        <v>0.05309486822310782</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>36</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1344471722.889251</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1807742736.751858</v>
+        <v>1654017578.901638</v>
       </c>
       <c r="F96" t="n">
-        <v>0.089882022051333</v>
+        <v>0.1390886696523592</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03322870960563707</v>
+        <v>0.04334979319579593</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>903871375.8424301</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4810381130.429287</v>
+        <v>3362973632.151648</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1431453019024692</v>
+        <v>0.1751100244743649</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01794176235266422</v>
+        <v>0.02019618110683619</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>47</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2405190686.724865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2794169048.416811</v>
+        <v>2931754323.053133</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07846489439427456</v>
+        <v>0.09343386659061616</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01996488286653955</v>
+        <v>0.02003540413226463</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>39</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1397084494.900444</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2393595840.662023</v>
+        <v>2535214843.09429</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1260429215262019</v>
+        <v>0.1228399773705578</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03211275233212439</v>
+        <v>0.02465387813569654</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>47</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1196797862.340549</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4792727622.568811</v>
+        <v>3969914042.340967</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1702470428173147</v>
+        <v>0.1378186861352061</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01737264423863894</v>
+        <v>0.02739581776727694</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>45</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2396363945.191575</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2573940881.164053</v>
+        <v>2641199911.491874</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1758387990706633</v>
+        <v>0.1505292315826925</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03703185991663568</v>
+        <v>0.04863447285420827</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>61</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1286970473.280493</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_148.xlsx
+++ b/output/fit_clients/fit_round_148.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1767774272.042096</v>
+        <v>2220749604.176884</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1044556304739166</v>
+        <v>0.0919451177920227</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03210850014065088</v>
+        <v>0.03073015654345455</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1619781234.22142</v>
+        <v>1663500660.030978</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1596281933885658</v>
+        <v>0.1645270610212919</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0321818680925933</v>
+        <v>0.04210022099595928</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4260360667.419915</v>
+        <v>3206796126.137143</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1506876915605643</v>
+        <v>0.1541695133230473</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02878511505340742</v>
+        <v>0.0304710432853612</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4208719409.802667</v>
+        <v>3247258247.754017</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08035226452588286</v>
+        <v>0.08184491705473582</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03931674115260541</v>
+        <v>0.04879209864763105</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2787668069.804641</v>
+        <v>2649831858.464737</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1271548891181782</v>
+        <v>0.1310137870139272</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04315831680853664</v>
+        <v>0.04662173012353214</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2649860085.111197</v>
+        <v>2304282266.128876</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06386603594399512</v>
+        <v>0.07176800545514821</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03887879767272173</v>
+        <v>0.0419495895397112</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3492530537.083203</v>
+        <v>3976332025.747128</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2090355612290603</v>
+        <v>0.2120905625994895</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02212801800249727</v>
+        <v>0.03063243410150735</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1689760591.500608</v>
+        <v>1600178668.534438</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1736716223150389</v>
+        <v>0.1566195449344616</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03431590447530963</v>
+        <v>0.02455326124304243</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3616343229.137082</v>
+        <v>5246988753.12746</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1730920600394865</v>
+        <v>0.2068479708309001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05038773881970794</v>
+        <v>0.04496037362748321</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3338322356.296673</v>
+        <v>3286068349.604246</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1463048954712812</v>
+        <v>0.164603603785314</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04140372377386999</v>
+        <v>0.04012964684756989</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -766,16 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3018112368.19392</v>
+        <v>2371248247.670436</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1724635986556035</v>
+        <v>0.1267965019695175</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04263184493169679</v>
+        <v>0.04573398260838412</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4016994188.681541</v>
+        <v>4691712064.017549</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07626097898141132</v>
+        <v>0.08834943451283847</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02264964527879267</v>
+        <v>0.01933057076347923</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3745940687.267262</v>
+        <v>2993971065.238867</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1759387637178896</v>
+        <v>0.1640160160308811</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03854204007018786</v>
+        <v>0.03404396219969138</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1466660005.096736</v>
+        <v>1405474159.335429</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1025043870826118</v>
+        <v>0.07633377838268976</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03095709455172647</v>
+        <v>0.03089904191115955</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2260019333.180611</v>
+        <v>2727654571.713736</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08661517266834116</v>
+        <v>0.1055038620897351</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04041985410464295</v>
+        <v>0.0363911882353038</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3949318941.525635</v>
+        <v>3900428845.028265</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1458945818596752</v>
+        <v>0.1562612045690192</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03441357563518576</v>
+        <v>0.03421764428636635</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3909506420.703782</v>
+        <v>2975872355.74725</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1413700954363618</v>
+        <v>0.1144611261358149</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03404076859108409</v>
+        <v>0.03288707505471849</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1377752131.597492</v>
+        <v>873553089.8655162</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1433678141387097</v>
+        <v>0.1469368314403828</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01981869143183197</v>
+        <v>0.01676140418960326</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2019134886.454538</v>
+        <v>1734929767.315648</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1612407434690975</v>
+        <v>0.14921031149706</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0209148571998753</v>
+        <v>0.02158207377879153</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2032054945.166815</v>
+        <v>2047536123.4399</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06960764912807663</v>
+        <v>0.08351485711623977</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03603276870532248</v>
+        <v>0.04534729050214389</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4029548038.303027</v>
+        <v>3359296336.679314</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1265405499085445</v>
+        <v>0.1418229356947224</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05600231066830957</v>
+        <v>0.03542953238727847</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1274478508.155887</v>
+        <v>1535906629.593527</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1210185097971438</v>
+        <v>0.114775362870458</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0548360427299519</v>
+        <v>0.04026412343817849</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3095597465.959219</v>
+        <v>4115045521.971349</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1063949514949488</v>
+        <v>0.1158771209544063</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03687885398663518</v>
+        <v>0.0231502314736602</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1399113358.349635</v>
+        <v>1061112838.752637</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07638164075712404</v>
+        <v>0.09614568090309566</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01891843119329846</v>
+        <v>0.02779097560456053</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1051509960.799823</v>
+        <v>1264150952.877372</v>
       </c>
       <c r="F26" t="n">
-        <v>0.113164769188913</v>
+        <v>0.1118599819303447</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0374381074618236</v>
+        <v>0.02889058089554675</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4395207382.533435</v>
+        <v>2892884542.448387</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1031204683499904</v>
+        <v>0.1455124347662694</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01698468168966103</v>
+        <v>0.01964065704711563</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3188694419.518561</v>
+        <v>2511214584.586236</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1036526327578315</v>
+        <v>0.118375482549692</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0440239038515671</v>
+        <v>0.03487367669540298</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5705014348.767953</v>
+        <v>4213359943.621176</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1050807619686735</v>
+        <v>0.09491782203155551</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04071894198436915</v>
+        <v>0.03188596194231409</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1841612694.473594</v>
+        <v>1892815154.477561</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09174316098130611</v>
+        <v>0.1081411585950842</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0260159132642894</v>
+        <v>0.02439112011372015</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1394241328.391351</v>
+        <v>953698904.3729143</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09911960661163995</v>
+        <v>0.06944342189529043</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03592795462792427</v>
+        <v>0.03481253134168814</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1646937480.186091</v>
+        <v>1741633286.885872</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1135591944791212</v>
+        <v>0.07596024235326525</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02801071938047751</v>
+        <v>0.02763804189876954</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1991206640.502968</v>
+        <v>2698501022.423261</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1484967164602866</v>
+        <v>0.1530704796940049</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03737206808449602</v>
+        <v>0.03848071231803354</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1204977942.317719</v>
+        <v>1212595591.512895</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1122254165335105</v>
+        <v>0.09874972980038492</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02396697439009806</v>
+        <v>0.01987911435748539</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1146708770.396966</v>
+        <v>1006663474.666356</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0828798721966134</v>
+        <v>0.07764190445889212</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03574170100101066</v>
+        <v>0.04442121256252848</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2208028753.070135</v>
+        <v>2265512253.626169</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1497498770740768</v>
+        <v>0.1259184870178632</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02061317423618998</v>
+        <v>0.0247417637296833</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2433427677.422068</v>
+        <v>2100363475.577762</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07900368095476347</v>
+        <v>0.09463601949724738</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03077417216499143</v>
+        <v>0.03089713827760645</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1771265563.403059</v>
+        <v>2041724363.207195</v>
       </c>
       <c r="F38" t="n">
-        <v>0.114592761303593</v>
+        <v>0.1010778875290443</v>
       </c>
       <c r="G38" t="n">
-        <v>0.028421018785628</v>
+        <v>0.02807484476000542</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2201968757.981654</v>
+        <v>1556006026.935911</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1493188518550057</v>
+        <v>0.1555701788001742</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02753343904215547</v>
+        <v>0.02816878855112698</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,16 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1512387132.057666</v>
+        <v>1804218059.320583</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1407846858058872</v>
+        <v>0.111120419557296</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05718372824428057</v>
+        <v>0.04736675449310784</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2031883854.14278</v>
+        <v>2164417013.348886</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1267683799291682</v>
+        <v>0.1542407277537483</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03697012277646113</v>
+        <v>0.04437454182116301</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3225460950.436089</v>
+        <v>2954164226.622083</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08151567867527885</v>
+        <v>0.09262732400687174</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03867005650356151</v>
+        <v>0.0294980113514045</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2175121836.613366</v>
+        <v>3066555215.548413</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1498891806138924</v>
+        <v>0.146785527668503</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01686305254878434</v>
+        <v>0.01566518186669321</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2247114870.229235</v>
+        <v>1786142084.093904</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07193789401560355</v>
+        <v>0.06954902801313388</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03578526528511031</v>
+        <v>0.02257387026885966</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1971936135.215232</v>
+        <v>2321985068.175543</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1448914529243492</v>
+        <v>0.1246518561884072</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03523730075923281</v>
+        <v>0.03385130277174393</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4945907673.019287</v>
+        <v>5593541764.094731</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1222703910088228</v>
+        <v>0.1253161705264469</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04809532794836227</v>
+        <v>0.04169638355677891</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4997971552.480199</v>
+        <v>3538464902.442901</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1645002458722775</v>
+        <v>0.1618135919782384</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05929206380612487</v>
+        <v>0.05199218518733199</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2898410954.011428</v>
+        <v>4266363513.472714</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09331318410554758</v>
+        <v>0.08499409510308852</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02997500718558851</v>
+        <v>0.03200686154226416</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1648337160.628812</v>
+        <v>1208488097.591395</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1528092931982859</v>
+        <v>0.1486595449043803</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02855071515732989</v>
+        <v>0.04380289075635756</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2814263225.943936</v>
+        <v>3029099569.404457</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1557868728413374</v>
+        <v>0.1157843420603092</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04686668597979689</v>
+        <v>0.03225771049211189</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1023069577.279629</v>
+        <v>1493199258.73936</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1354673007233093</v>
+        <v>0.1355427590516377</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04569488898119104</v>
+        <v>0.0545024983543774</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4429656480.759287</v>
+        <v>4198463125.25301</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1111219304072437</v>
+        <v>0.1305199285018055</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06167021499400031</v>
+        <v>0.04868323978774576</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2583707033.036755</v>
+        <v>3506740869.181341</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1383428363689175</v>
+        <v>0.1745698528608802</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02602127922002573</v>
+        <v>0.02893749181434091</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3140325212.271286</v>
+        <v>4773092101.739826</v>
       </c>
       <c r="F54" t="n">
-        <v>0.140987256817841</v>
+        <v>0.1362191206605843</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04306991134764609</v>
+        <v>0.04844357624502874</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4672232860.296284</v>
+        <v>3880491653.926275</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1669755166893345</v>
+        <v>0.138480723420827</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02205278677401282</v>
+        <v>0.02623501582806087</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,16 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1649652401.441375</v>
+        <v>1211570807.465804</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1386264241770194</v>
+        <v>0.1481440489811865</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03795719459883908</v>
+        <v>0.03556525359637768</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4527859776.619814</v>
+        <v>4596286214.713146</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1625763455888049</v>
+        <v>0.1765972649178524</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02352746431820527</v>
+        <v>0.0219581726540576</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1315300516.871531</v>
+        <v>1426520479.669625</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1964846524975968</v>
+        <v>0.1959780774646162</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03180261464948638</v>
+        <v>0.02450414661174955</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4464906602.205644</v>
+        <v>3309738149.741685</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1222307335066368</v>
+        <v>0.0903006406293374</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0454475949266661</v>
+        <v>0.03240385085044625</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2545692773.877899</v>
+        <v>3226908610.969151</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1619452908891576</v>
+        <v>0.1560556293379747</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03169493328430154</v>
+        <v>0.02504201048500863</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2909734764.486173</v>
+        <v>2947010714.175022</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1492415381307397</v>
+        <v>0.1763283059711289</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02209706634878747</v>
+        <v>0.03219799824868937</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1464914934.530686</v>
+        <v>1611054225.176235</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1754440937968495</v>
+        <v>0.1885079489792411</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04049188545015495</v>
+        <v>0.03959042946280764</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5422686172.618534</v>
+        <v>3817040591.587483</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07313011534492508</v>
+        <v>0.1051196762916405</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04397560902872482</v>
+        <v>0.04493448412729194</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4091328246.868108</v>
+        <v>5017018933.221602</v>
       </c>
       <c r="F64" t="n">
-        <v>0.189910859642719</v>
+        <v>0.1256909338709931</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03279837364306311</v>
+        <v>0.02292345027166112</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4637553586.468049</v>
+        <v>5983106595.566591</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1703063522941069</v>
+        <v>0.1344208569025062</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02571594327073605</v>
+        <v>0.02347123055902167</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5149328408.862213</v>
+        <v>4891889678.115449</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1159437001849627</v>
+        <v>0.1006882051215175</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03530417111541672</v>
+        <v>0.0471952426895009</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2132275614.826319</v>
+        <v>3005309770.028975</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08728756836808847</v>
+        <v>0.1012739954553678</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04129325702345017</v>
+        <v>0.0355267166109618</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4701255192.540141</v>
+        <v>5025877752.702956</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1436074477490991</v>
+        <v>0.1080611394407872</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03609401323344367</v>
+        <v>0.04696335753212937</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2187077759.716321</v>
+        <v>1936458426.671083</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1300532220593138</v>
+        <v>0.1747147874330014</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04981331231068805</v>
+        <v>0.044044798572006</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2417641567.74532</v>
+        <v>2852171490.93218</v>
       </c>
       <c r="F70" t="n">
-        <v>0.068109864905548</v>
+        <v>0.06792746104747553</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03740604823514126</v>
+        <v>0.03079431328021765</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5241108073.432168</v>
+        <v>5603835994.759032</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1785104937836883</v>
+        <v>0.1715340613851576</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02112181557906627</v>
+        <v>0.0272257172370131</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2217059518.557661</v>
+        <v>1382240413.303497</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08918627909468206</v>
+        <v>0.09652122176069641</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03811208750116556</v>
+        <v>0.04771515846543406</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2709781756.222778</v>
+        <v>3522921165.19278</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1069179218233372</v>
+        <v>0.06945107262564708</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0333504372896337</v>
+        <v>0.05235200704435181</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3238841006.151283</v>
+        <v>3640605027.599423</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1167473089686005</v>
+        <v>0.1750625241589852</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02923747592765202</v>
+        <v>0.02468566205208304</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2024464957.916275</v>
+        <v>1878985633.050965</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1141771182504424</v>
+        <v>0.1179526810118504</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02526417882715423</v>
+        <v>0.03777132872387261</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5302643937.291136</v>
+        <v>4234147048.663674</v>
       </c>
       <c r="F76" t="n">
-        <v>0.111099607514442</v>
+        <v>0.07652624549518075</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02837585436096091</v>
+        <v>0.02100711038331087</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1520879190.345199</v>
+        <v>2299852080.195117</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1711580529997749</v>
+        <v>0.1506284018755033</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02211158924402945</v>
+        <v>0.0290902165380946</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3785073209.881013</v>
+        <v>4057348517.455815</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1029536674180881</v>
+        <v>0.130614066883868</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0502882072885493</v>
+        <v>0.03950802735000793</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1258482916.857684</v>
+        <v>1219498403.54385</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1127074522218297</v>
+        <v>0.1720526216657129</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03709792108702991</v>
+        <v>0.02572654409548054</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5236009372.157477</v>
+        <v>3765290521.193683</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07450577865240064</v>
+        <v>0.07842943663311325</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03415777453382867</v>
+        <v>0.03342883628165987</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5157704081.288142</v>
+        <v>4134185892.600961</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1253113006083459</v>
+        <v>0.1214325270137143</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03161995555354082</v>
+        <v>0.02104586311931377</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5673398442.054579</v>
+        <v>4604021320.898679</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1709592194646675</v>
+        <v>0.1835285035310684</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0200686364065113</v>
+        <v>0.02458721110447687</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2362117931.528499</v>
+        <v>1530775465.525232</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1063935884733432</v>
+        <v>0.137312672468148</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04096198420228878</v>
+        <v>0.04042470758703411</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1867798258.844649</v>
+        <v>1879466893.64528</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08459426119648294</v>
+        <v>0.09155175881181567</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03687066579576952</v>
+        <v>0.03246498091701727</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2603587688.150175</v>
+        <v>3176239871.780775</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1807869392754067</v>
+        <v>0.1480684933756677</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04309207943399141</v>
+        <v>0.04769261687926311</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2082549431.702286</v>
+        <v>2505340649.809793</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1392373359524926</v>
+        <v>0.118550005604518</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02299616187229071</v>
+        <v>0.02457683317539007</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1088749712.266958</v>
+        <v>1385663731.786479</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1699754234445085</v>
+        <v>0.1376212376063677</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03676973704643313</v>
+        <v>0.02940604319437365</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3305277710.961092</v>
+        <v>3381400992.346204</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1681456384008913</v>
+        <v>0.1220997430622408</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02985637618968942</v>
+        <v>0.03371638565855468</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3197680785.506955</v>
+        <v>2629279915.980957</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1264149182751031</v>
+        <v>0.1577947341631568</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02718998282774454</v>
+        <v>0.02630825595544854</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1475112584.037182</v>
+        <v>1480101667.199003</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08969429375188448</v>
+        <v>0.1025519438083312</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05163349811433834</v>
+        <v>0.04894073201534413</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1658729878.033865</v>
+        <v>1501694304.411603</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1725213043710069</v>
+        <v>0.1784329595943512</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03736639991676951</v>
+        <v>0.05128176220641054</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1895126258.421476</v>
+        <v>2243762101.428154</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07278208602436911</v>
+        <v>0.08321010162332979</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04555074670829513</v>
+        <v>0.02991879740948507</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3507959576.753747</v>
+        <v>3915673951.899148</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1199885613108108</v>
+        <v>0.142462589334193</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03468928680610184</v>
+        <v>0.04602503774665546</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1915816474.104776</v>
+        <v>1834438029.03712</v>
       </c>
       <c r="F94" t="n">
-        <v>0.165583770022818</v>
+        <v>0.1391418753923924</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0383228964582896</v>
+        <v>0.02623184968226968</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2583591823.907017</v>
+        <v>2858942712.509509</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1298628288318258</v>
+        <v>0.1088404091043399</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05309486822310782</v>
+        <v>0.0366885091885373</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1654017578.901638</v>
+        <v>1485262894.553133</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1390886696523592</v>
+        <v>0.1043714271042088</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04334979319579593</v>
+        <v>0.03011050007699986</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3362973632.151648</v>
+        <v>3580150154.759191</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1751100244743649</v>
+        <v>0.1673979414319168</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02019618110683619</v>
+        <v>0.01761916720552666</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2931754323.053133</v>
+        <v>2519258899.039211</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09343386659061616</v>
+        <v>0.08464170249381428</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02003540413226463</v>
+        <v>0.02050032038987717</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2535214843.09429</v>
+        <v>3155265165.060156</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1228399773705578</v>
+        <v>0.1024046116404187</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02465387813569654</v>
+        <v>0.02828142090309964</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3969914042.340967</v>
+        <v>3108315591.554378</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1378186861352061</v>
+        <v>0.1355878021794938</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02739581776727694</v>
+        <v>0.01950897444146319</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2641199911.491874</v>
+        <v>3085384733.519615</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1505292315826925</v>
+        <v>0.1550870109584311</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04863447285420827</v>
+        <v>0.05573414702462693</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_148.xlsx
+++ b/output/fit_clients/fit_round_148.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2220749604.176884</v>
+        <v>2038887549.690595</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0919451177920227</v>
+        <v>0.09370832761304983</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03073015654345455</v>
+        <v>0.04511409951974762</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1663500660.030978</v>
+        <v>2272163525.613653</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1645270610212919</v>
+        <v>0.1502571586942076</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04210022099595928</v>
+        <v>0.03445426221795416</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3206796126.137143</v>
+        <v>3813150258.198256</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1541695133230473</v>
+        <v>0.1139968778629752</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0304710432853612</v>
+        <v>0.03152763083240872</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>84</v>
+      </c>
+      <c r="J4" t="n">
+        <v>148</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,16 +606,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3247258247.754017</v>
+        <v>2801808498.352726</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08184491705473582</v>
+        <v>0.09729096023974496</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04879209864763105</v>
+        <v>0.04132832772453091</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>61</v>
+      </c>
+      <c r="J5" t="n">
+        <v>147</v>
+      </c>
+      <c r="K5" t="n">
+        <v>79.74183058613269</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2649831858.464737</v>
+        <v>2866628720.05542</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1310137870139272</v>
+        <v>0.09401140764039465</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04662173012353214</v>
+        <v>0.04601596920556568</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2304282266.128876</v>
+        <v>1975888592.71345</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07176800545514821</v>
+        <v>0.06867009088039983</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0419495895397112</v>
+        <v>0.04222910396688904</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3976332025.747128</v>
+        <v>2758608230.970993</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2120905625994895</v>
+        <v>0.1503750104270442</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03063243410150735</v>
+        <v>0.02349433767872871</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>43</v>
+      </c>
+      <c r="J8" t="n">
+        <v>144</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1600178668.534438</v>
+        <v>2216230694.853823</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1566195449344616</v>
+        <v>0.1990685533889721</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02455326124304243</v>
+        <v>0.024174250168209</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5246988753.12746</v>
+        <v>5577575901.657598</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2068479708309001</v>
+        <v>0.2144565883322924</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04496037362748321</v>
+        <v>0.05461892703242145</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>136</v>
+      </c>
+      <c r="J10" t="n">
+        <v>148</v>
+      </c>
+      <c r="K10" t="n">
+        <v>153.3479972916944</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +820,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3286068349.604246</v>
+        <v>3322943248.56378</v>
       </c>
       <c r="F11" t="n">
-        <v>0.164603603785314</v>
+        <v>0.1812239385329551</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04012964684756989</v>
+        <v>0.04844425314836662</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>63</v>
+      </c>
+      <c r="J11" t="n">
+        <v>147</v>
+      </c>
+      <c r="K11" t="n">
+        <v>107.1856944504554</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2371248247.670436</v>
+        <v>3116586443.07653</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1267965019695175</v>
+        <v>0.1774829428913637</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04573398260838412</v>
+        <v>0.03982023425289021</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4691712064.017549</v>
+        <v>4141893352.430726</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08834943451283847</v>
+        <v>0.07599343203875263</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01933057076347923</v>
+        <v>0.02203779548441108</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>72</v>
+      </c>
+      <c r="J13" t="n">
+        <v>147</v>
+      </c>
+      <c r="K13" t="n">
+        <v>136.8113657689733</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +929,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2993971065.238867</v>
+        <v>3055284966.016983</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1640160160308811</v>
+        <v>0.1294731412086472</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03404396219969138</v>
+        <v>0.02767034865510012</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>26</v>
+      </c>
+      <c r="J14" t="n">
+        <v>139</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1405474159.335429</v>
+        <v>1606216689.374161</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07633377838268976</v>
+        <v>0.1078201693491528</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03089904191115955</v>
+        <v>0.03209949975162178</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2727654571.713736</v>
+        <v>1895998605.635873</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1055038620897351</v>
+        <v>0.08076195411259258</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0363911882353038</v>
+        <v>0.03178936836848214</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1034,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3900428845.028265</v>
+        <v>4794811602.674526</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1562612045690192</v>
+        <v>0.1237881337069666</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03421764428636635</v>
+        <v>0.04877048830617724</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>71</v>
+      </c>
+      <c r="J17" t="n">
+        <v>148</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2975872355.74725</v>
+        <v>2906275819.089766</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1144611261358149</v>
+        <v>0.1600460255899833</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03288707505471849</v>
+        <v>0.03299098292008555</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>37</v>
+      </c>
+      <c r="J18" t="n">
+        <v>143</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>873553089.8655162</v>
+        <v>1098061983.414921</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1469368314403828</v>
+        <v>0.1625268670926835</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01676140418960326</v>
+        <v>0.01739912579692834</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1734929767.315648</v>
+        <v>2091310991.692628</v>
       </c>
       <c r="F20" t="n">
-        <v>0.14921031149706</v>
+        <v>0.1393321353551601</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02158207377879153</v>
+        <v>0.02732163141325978</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2047536123.4399</v>
+        <v>2105546334.816455</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08351485711623977</v>
+        <v>0.08805405603802514</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04534729050214389</v>
+        <v>0.03027770986274578</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3359296336.679314</v>
+        <v>2437992723.976102</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1418229356947224</v>
+        <v>0.114589152245548</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03542953238727847</v>
+        <v>0.04652745176597193</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>38</v>
+      </c>
+      <c r="J22" t="n">
+        <v>146</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1535906629.593527</v>
+        <v>943792100.643036</v>
       </c>
       <c r="F23" t="n">
-        <v>0.114775362870458</v>
+        <v>0.1404176536291376</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04026412343817849</v>
+        <v>0.0465800833812335</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4115045521.971349</v>
+        <v>2630954638.227181</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1158771209544063</v>
+        <v>0.1440942036080705</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0231502314736602</v>
+        <v>0.02316020780714253</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>43</v>
+      </c>
+      <c r="J24" t="n">
+        <v>146</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1061112838.752637</v>
+        <v>1382829971.064785</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09614568090309566</v>
+        <v>0.1079866916014159</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02779097560456053</v>
+        <v>0.01881827022473532</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1264150952.877372</v>
+        <v>1173684612.313521</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1118599819303447</v>
+        <v>0.0947736978517823</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02889058089554675</v>
+        <v>0.03034053208107386</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2892884542.448387</v>
+        <v>3150935836.03711</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1455124347662694</v>
+        <v>0.10159091774565</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01964065704711563</v>
+        <v>0.01704637591288055</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>58</v>
+      </c>
+      <c r="J27" t="n">
+        <v>146</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2511214584.586236</v>
+        <v>2964622943.498224</v>
       </c>
       <c r="F28" t="n">
-        <v>0.118375482549692</v>
+        <v>0.1390452245959281</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03487367669540298</v>
+        <v>0.04020433070918331</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>30</v>
+      </c>
+      <c r="J28" t="n">
+        <v>140</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4213359943.621176</v>
+        <v>4931807320.21295</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09491782203155551</v>
+        <v>0.1445232987968821</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03188596194231409</v>
+        <v>0.04058722734213172</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>137</v>
+      </c>
+      <c r="J29" t="n">
+        <v>148</v>
+      </c>
+      <c r="K29" t="n">
+        <v>163.4448764479756</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1892815154.477561</v>
+        <v>1597993981.06429</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1081411585950842</v>
+        <v>0.1042503709695898</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02439112011372015</v>
+        <v>0.02879117250518437</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>953698904.3729143</v>
+        <v>904856448.7759463</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06944342189529043</v>
+        <v>0.08396460365559205</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03481253134168814</v>
+        <v>0.03196232152156912</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1741633286.885872</v>
+        <v>1208773166.769416</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07596024235326525</v>
+        <v>0.1056670869276588</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02763804189876954</v>
+        <v>0.02340921173441646</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2698501022.423261</v>
+        <v>2395950046.626927</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1530704796940049</v>
+        <v>0.1258829072324041</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03848071231803354</v>
+        <v>0.04135379775899065</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1212595591.512895</v>
+        <v>1264264273.415526</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09874972980038492</v>
+        <v>0.08336771914365958</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01987911435748539</v>
+        <v>0.02782566135434957</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1006663474.666356</v>
+        <v>897923747.8187892</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07764190445889212</v>
+        <v>0.1031189238808611</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04442121256252848</v>
+        <v>0.03745724840404886</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2265512253.626169</v>
+        <v>2542898716.8798</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1259184870178632</v>
+        <v>0.1490912221431176</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0247417637296833</v>
+        <v>0.02152679458017312</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2100363475.577762</v>
+        <v>2090791617.312111</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09463601949724738</v>
+        <v>0.1099900887695774</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03089713827760645</v>
+        <v>0.03156345961999502</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2041724363.207195</v>
+        <v>1679350556.543037</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1010778875290443</v>
+        <v>0.1110357327865917</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02807484476000542</v>
+        <v>0.02911865386143894</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1556006026.935911</v>
+        <v>1758051522.054946</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1555701788001742</v>
+        <v>0.1200545231912827</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02816878855112698</v>
+        <v>0.0313423352101434</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1804218059.320583</v>
+        <v>1133343099.048708</v>
       </c>
       <c r="F40" t="n">
-        <v>0.111120419557296</v>
+        <v>0.1414289694413097</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04736675449310784</v>
+        <v>0.04417572994716828</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2164417013.348886</v>
+        <v>2729884095.177421</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1542407277537483</v>
+        <v>0.1641542460118823</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04437454182116301</v>
+        <v>0.03112167101857092</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1911,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2954164226.622083</v>
+        <v>3087590163.337811</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09262732400687174</v>
+        <v>0.1188965571013255</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0294980113514045</v>
+        <v>0.03860212182404154</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>54</v>
+      </c>
+      <c r="J42" t="n">
+        <v>145</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3066555215.548413</v>
+        <v>2615286646.445932</v>
       </c>
       <c r="F43" t="n">
-        <v>0.146785527668503</v>
+        <v>0.1789175782459979</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01566518186669321</v>
+        <v>0.02583419184774532</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1786142084.093904</v>
+        <v>1428848629.185812</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06954902801313388</v>
+        <v>0.07100547886200496</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02257387026885966</v>
+        <v>0.03398483722651278</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2321985068.175543</v>
+        <v>1699311452.858521</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1246518561884072</v>
+        <v>0.1663305549718602</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03385130277174393</v>
+        <v>0.03965564133756842</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2045,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5593541764.094731</v>
+        <v>5411067801.900607</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1253161705264469</v>
+        <v>0.114873004941445</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04169638355677891</v>
+        <v>0.05803013153012843</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>83</v>
+      </c>
+      <c r="J46" t="n">
+        <v>148</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2080,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3538464902.442901</v>
+        <v>3697983413.228391</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1618135919782384</v>
+        <v>0.1583563956850939</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05199218518733199</v>
+        <v>0.05115998157433615</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>66</v>
+      </c>
+      <c r="J47" t="n">
+        <v>147</v>
+      </c>
+      <c r="K47" t="n">
+        <v>102.9096212479365</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2117,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4266363513.472714</v>
+        <v>3920706535.160835</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08499409510308852</v>
+        <v>0.1092394315134333</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03200686154226416</v>
+        <v>0.0280113818272671</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>63</v>
+      </c>
+      <c r="J48" t="n">
+        <v>148</v>
+      </c>
+      <c r="K48" t="n">
+        <v>141.268113490001</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1208488097.591395</v>
+        <v>1701135687.782373</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1486595449043803</v>
+        <v>0.1724379266760126</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04380289075635756</v>
+        <v>0.03289407097445019</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2189,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3029099569.404457</v>
+        <v>3629259712.906543</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1157843420603092</v>
+        <v>0.112883010868623</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03225771049211189</v>
+        <v>0.05204180068378245</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>49</v>
+      </c>
+      <c r="J50" t="n">
+        <v>147</v>
+      </c>
+      <c r="K50" t="n">
+        <v>119.9616810647092</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1493199258.73936</v>
+        <v>1318069211.858815</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1355427590516377</v>
+        <v>0.1407998491658179</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0545024983543774</v>
+        <v>0.03311354646029362</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4198463125.25301</v>
+        <v>3227854484.594799</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1305199285018055</v>
+        <v>0.09003452849415969</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04868323978774576</v>
+        <v>0.03736672771032046</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>110</v>
+      </c>
+      <c r="J52" t="n">
+        <v>147</v>
+      </c>
+      <c r="K52" t="n">
+        <v>95.21383090958433</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3506740869.181341</v>
+        <v>3664469165.325489</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1745698528608802</v>
+        <v>0.1446140706342719</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02893749181434091</v>
+        <v>0.0237983378669245</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>18</v>
+      </c>
+      <c r="J53" t="n">
+        <v>148</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4773092101.739826</v>
+        <v>4057768535.849765</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1362191206605843</v>
+        <v>0.1135375324203305</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04844357624502874</v>
+        <v>0.04511587179050469</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>69</v>
+      </c>
+      <c r="J54" t="n">
+        <v>148</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3880491653.926275</v>
+        <v>3848273459.703088</v>
       </c>
       <c r="F55" t="n">
-        <v>0.138480723420827</v>
+        <v>0.2086973912268267</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02623501582806087</v>
+        <v>0.03144919263697815</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>68</v>
+      </c>
+      <c r="J55" t="n">
+        <v>147</v>
+      </c>
+      <c r="K55" t="n">
+        <v>126.2887998566575</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1211570807.465804</v>
+        <v>1299526564.657453</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1481440489811865</v>
+        <v>0.1599580911051935</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03556525359637768</v>
+        <v>0.04062335972763797</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4596286214.713146</v>
+        <v>3845426073.122062</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1765972649178524</v>
+        <v>0.1587171109400846</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0219581726540576</v>
+        <v>0.0217190045124952</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>60</v>
+      </c>
+      <c r="J57" t="n">
+        <v>147</v>
+      </c>
+      <c r="K57" t="n">
+        <v>129.553273927898</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1426520479.669625</v>
+        <v>1569148770.501312</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1959780774646162</v>
+        <v>0.1451551352842355</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02450414661174955</v>
+        <v>0.03264721821328021</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3309738149.741685</v>
+        <v>3769216067.442937</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0903006406293374</v>
+        <v>0.1094792322125237</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03240385085044625</v>
+        <v>0.03390006488365699</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>72</v>
+      </c>
+      <c r="J59" t="n">
+        <v>147</v>
+      </c>
+      <c r="K59" t="n">
+        <v>119.8035027525256</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3226908610.969151</v>
+        <v>3332116298.649095</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1560556293379747</v>
+        <v>0.1914021232582965</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02504201048500863</v>
+        <v>0.0259231078659539</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>22</v>
+      </c>
+      <c r="J60" t="n">
+        <v>148</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2947010714.175022</v>
+        <v>2961669263.250396</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1763283059711289</v>
+        <v>0.1295896951707013</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03219799824868937</v>
+        <v>0.02855180747549312</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>4</v>
+      </c>
+      <c r="J61" t="n">
+        <v>146</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1611054225.176235</v>
+        <v>1794642378.839178</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1885079489792411</v>
+        <v>0.1779285864192372</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03959042946280764</v>
+        <v>0.0340204330000999</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3817040591.587483</v>
+        <v>4535694766.592694</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1051196762916405</v>
+        <v>0.09974564572878521</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04493448412729194</v>
+        <v>0.04734679676685036</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>72</v>
+      </c>
+      <c r="J63" t="n">
+        <v>148</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5017018933.221602</v>
+        <v>4089541532.495982</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1256909338709931</v>
+        <v>0.1359596568514409</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02292345027166112</v>
+        <v>0.02589075756023511</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>73</v>
+      </c>
+      <c r="J64" t="n">
+        <v>148</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5983106595.566591</v>
+        <v>4880990804.083277</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1344208569025062</v>
+        <v>0.1581531187443035</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02347123055902167</v>
+        <v>0.02732961241367289</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>123</v>
+      </c>
+      <c r="J65" t="n">
+        <v>148</v>
+      </c>
+      <c r="K65" t="n">
+        <v>142.300674360767</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4891889678.115449</v>
+        <v>5172845522.046151</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1006882051215175</v>
+        <v>0.1201848902457363</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0471952426895009</v>
+        <v>0.04295117869584208</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>73</v>
+      </c>
+      <c r="J66" t="n">
+        <v>147</v>
+      </c>
+      <c r="K66" t="n">
+        <v>128.6830483620087</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3005309770.028975</v>
+        <v>2548608059.187183</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1012739954553678</v>
+        <v>0.06628405838725043</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0355267166109618</v>
+        <v>0.03365151752086637</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5025877752.702956</v>
+        <v>4263632430.038116</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1080611394407872</v>
+        <v>0.150909027305109</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04696335753212937</v>
+        <v>0.03239055270706889</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>74</v>
+      </c>
+      <c r="J68" t="n">
+        <v>148</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1936458426.671083</v>
+        <v>1921825530.931306</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1747147874330014</v>
+        <v>0.1338138461181107</v>
       </c>
       <c r="G69" t="n">
-        <v>0.044044798572006</v>
+        <v>0.05769679461686834</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2852171490.93218</v>
+        <v>3478131290.368942</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06792746104747553</v>
+        <v>0.07859181552468354</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03079431328021765</v>
+        <v>0.04779637326177982</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>20</v>
+      </c>
+      <c r="J70" t="n">
+        <v>148</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2944,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5603835994.759032</v>
+        <v>3746231023.378832</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1715340613851576</v>
+        <v>0.1649854374533362</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0272257172370131</v>
+        <v>0.03158910769624429</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>118</v>
+      </c>
+      <c r="J71" t="n">
+        <v>147</v>
+      </c>
+      <c r="K71" t="n">
+        <v>128.8265208880183</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1382240413.303497</v>
+        <v>1575325644.005933</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09652122176069641</v>
+        <v>0.1024681539887276</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04771515846543406</v>
+        <v>0.03644090083704993</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3522921165.19278</v>
+        <v>2561575383.911067</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06945107262564708</v>
+        <v>0.1113993640491793</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05235200704435181</v>
+        <v>0.05169215116808659</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3640605027.599423</v>
+        <v>2852211934.190307</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1750625241589852</v>
+        <v>0.1772185159335207</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02468566205208304</v>
+        <v>0.02476360144990017</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>46</v>
+      </c>
+      <c r="J74" t="n">
+        <v>142</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1878985633.050965</v>
+        <v>1519895398.353697</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1179526810118504</v>
+        <v>0.152977025047518</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03777132872387261</v>
+        <v>0.02378627042131674</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4234147048.663674</v>
+        <v>5275151133.575296</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07652624549518075</v>
+        <v>0.09658481808375254</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02100711038331087</v>
+        <v>0.02918875508034393</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>68</v>
+      </c>
+      <c r="J76" t="n">
+        <v>147</v>
+      </c>
+      <c r="K76" t="n">
+        <v>113.9079457413546</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2299852080.195117</v>
+        <v>1813757312.892195</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1506284018755033</v>
+        <v>0.1315669495860653</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0290902165380946</v>
+        <v>0.0204440319309631</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4057348517.455815</v>
+        <v>4049964803.460647</v>
       </c>
       <c r="F78" t="n">
-        <v>0.130614066883868</v>
+        <v>0.0964895621797815</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03950802735000793</v>
+        <v>0.03898672092389077</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>74</v>
+      </c>
+      <c r="J78" t="n">
+        <v>148</v>
+      </c>
+      <c r="K78" t="n">
+        <v>143.8209468753097</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1219498403.54385</v>
+        <v>1431562152.621665</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1720526216657129</v>
+        <v>0.1761569557361566</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02572654409548054</v>
+        <v>0.02762528843734152</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3765290521.193683</v>
+        <v>4939408938.387249</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07842943663311325</v>
+        <v>0.09969867076470726</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03342883628165987</v>
+        <v>0.02842767192796705</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>72</v>
+      </c>
+      <c r="J80" t="n">
+        <v>147</v>
+      </c>
+      <c r="K80" t="n">
+        <v>104.0384164619522</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3296,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4134185892.600961</v>
+        <v>4845643469.223733</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1214325270137143</v>
+        <v>0.08349108645704963</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02104586311931377</v>
+        <v>0.02751672479801698</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>68</v>
+      </c>
+      <c r="J81" t="n">
+        <v>147</v>
+      </c>
+      <c r="K81" t="n">
+        <v>120.6777810461358</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4604021320.898679</v>
+        <v>4325089733.208076</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1835285035310684</v>
+        <v>0.1339788323839802</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02458721110447687</v>
+        <v>0.02268148512994323</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>106</v>
+      </c>
+      <c r="J82" t="n">
+        <v>148</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1530775465.525232</v>
+        <v>2277282416.801489</v>
       </c>
       <c r="F83" t="n">
-        <v>0.137312672468148</v>
+        <v>0.1382726016450306</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04042470758703411</v>
+        <v>0.04410257073340292</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1879466893.64528</v>
+        <v>1735499469.70718</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09155175881181567</v>
+        <v>0.1063385802404938</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03246498091701727</v>
+        <v>0.0327890658547285</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3176239871.780775</v>
+        <v>2687720079.948435</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1480684933756677</v>
+        <v>0.1826650295535358</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04769261687926311</v>
+        <v>0.05209149593144236</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>24</v>
+      </c>
+      <c r="J85" t="n">
+        <v>143</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2505340649.809793</v>
+        <v>2381452350.571129</v>
       </c>
       <c r="F86" t="n">
-        <v>0.118550005604518</v>
+        <v>0.1514406579404315</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02457683317539007</v>
+        <v>0.01747154867850657</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1385663731.786479</v>
+        <v>1450072921.941313</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1376212376063677</v>
+        <v>0.1309065840766249</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02940604319437365</v>
+        <v>0.04139820066357559</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3381400992.346204</v>
+        <v>3058532855.61862</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1220997430622408</v>
+        <v>0.1399129682235549</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03371638565855468</v>
+        <v>0.03394350366962973</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>19</v>
+      </c>
+      <c r="J88" t="n">
+        <v>134</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2629279915.980957</v>
+        <v>2715415405.525118</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1577947341631568</v>
+        <v>0.1151590753844565</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02630825595544854</v>
+        <v>0.02881906559743377</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>12</v>
+      </c>
+      <c r="J89" t="n">
+        <v>146</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1480101667.199003</v>
+        <v>1570379388.787238</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1025519438083312</v>
+        <v>0.12089720303136</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04894073201534413</v>
+        <v>0.03662256215398259</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1501694304.411603</v>
+        <v>2101056445.161463</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1784329595943512</v>
+        <v>0.1842882814054138</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05128176220641054</v>
+        <v>0.05685824180745631</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2243762101.428154</v>
+        <v>2755790586.143956</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08321010162332979</v>
+        <v>0.08810704703494689</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02991879740948507</v>
+        <v>0.04577227434501965</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3915673951.899148</v>
+        <v>3600808617.528497</v>
       </c>
       <c r="F93" t="n">
-        <v>0.142462589334193</v>
+        <v>0.1176706889933581</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04602503774665546</v>
+        <v>0.04543212479256709</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>66</v>
+      </c>
+      <c r="J93" t="n">
+        <v>148</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1834438029.03712</v>
+        <v>2103819954.577555</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1391418753923924</v>
+        <v>0.1384664339129438</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02623184968226968</v>
+        <v>0.03101347530490586</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2858942712.509509</v>
+        <v>2974019448.1168</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1088404091043399</v>
+        <v>0.1377317022764981</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0366885091885373</v>
+        <v>0.03309811573704831</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1485262894.553133</v>
+        <v>1770781886.110554</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1043714271042088</v>
+        <v>0.1207505000971814</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03011050007699986</v>
+        <v>0.03709343451068244</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3580150154.759191</v>
+        <v>4525738323.267688</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1673979414319168</v>
+        <v>0.1520279842041131</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01761916720552666</v>
+        <v>0.02352367148494982</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>71</v>
+      </c>
+      <c r="J97" t="n">
+        <v>147</v>
+      </c>
+      <c r="K97" t="n">
+        <v>136.5239733200213</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2519258899.039211</v>
+        <v>3308456231.290451</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08464170249381428</v>
+        <v>0.1164885671211516</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02050032038987717</v>
+        <v>0.02254802574579583</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>34</v>
+      </c>
+      <c r="J98" t="n">
+        <v>148</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3155265165.060156</v>
+        <v>3048242385.980732</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1024046116404187</v>
+        <v>0.09341219352004194</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02828142090309964</v>
+        <v>0.02764596064227119</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3108315591.554378</v>
+        <v>4320438944.868428</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1355878021794938</v>
+        <v>0.1312495893493088</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01950897444146319</v>
+        <v>0.01811512547524047</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>61</v>
+      </c>
+      <c r="J100" t="n">
+        <v>148</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3085384733.519615</v>
+        <v>3270735375.894193</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1550870109584311</v>
+        <v>0.1419451344739205</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05573414702462693</v>
+        <v>0.05267376268603816</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>11</v>
+      </c>
+      <c r="J101" t="n">
+        <v>148</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
